--- a/example_data/EPA/label_corrected/083100-00051-20181101_2018-12-08_185931.xlsx
+++ b/example_data/EPA/label_corrected/083100-00051-20181101_2018-12-08_185931.xlsx
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Env warning - species || Pollinator</t>
+          <t>env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
